--- a/Breast_Cancer_Wisconsin/outputs/train_40_test_60/depth_None/bcw_train_40_test_60_depth_None_report.xlsx
+++ b/Breast_Cancer_Wisconsin/outputs/train_40_test_60/depth_None/bcw_train_40_test_60_depth_None_report.xlsx
@@ -458,39 +458,39 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>B</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8592592592592593</v>
+        <v>0.9074889867841409</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9133858267716536</v>
+        <v>0.9581395348837209</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8854961832061069</v>
+        <v>0.9321266968325792</v>
       </c>
       <c r="E2" t="n">
-        <v>127</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9468599033816425</v>
+        <v>0.9217391304347826</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9116279069767442</v>
+        <v>0.8346456692913385</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9289099526066351</v>
+        <v>0.8760330578512396</v>
       </c>
       <c r="E3" t="n">
-        <v>215</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4">
@@ -519,13 +519,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9030595813204509</v>
+        <v>0.9146140586094618</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9125068668741989</v>
+        <v>0.8963926020875297</v>
       </c>
       <c r="D5" t="n">
-        <v>0.907203067906371</v>
+        <v>0.9040798773419094</v>
       </c>
       <c r="E5" t="n">
         <v>342</v>
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9143298396285937</v>
+        <v>0.9127807067947592</v>
       </c>
       <c r="C6" t="n">
         <v>0.9122807017543859</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9127884651391874</v>
+        <v>0.9112966028248888</v>
       </c>
       <c r="E6" t="n">
         <v>342</v>

--- a/Breast_Cancer_Wisconsin/outputs/train_40_test_60/depth_None/bcw_train_40_test_60_depth_None_report.xlsx
+++ b/Breast_Cancer_Wisconsin/outputs/train_40_test_60/depth_None/bcw_train_40_test_60_depth_None_report.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9074889867841409</v>
+        <v>0.91</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9581395348837209</v>
+        <v>0.96</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9321266968325792</v>
+        <v>0.93</v>
       </c>
       <c r="E2" t="n">
         <v>215</v>
@@ -481,13 +481,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9217391304347826</v>
+        <v>0.92</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8346456692913385</v>
+        <v>0.83</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8760330578512396</v>
+        <v>0.88</v>
       </c>
       <c r="E3" t="n">
         <v>127</v>
@@ -499,17 +499,13 @@
           <t>accuracy</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0.9122807017543859</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.9122807017543859</v>
-      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>0.9122807017543859</v>
+        <v>0.91</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9122807017543859</v>
+        <v>342</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +515,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9146140586094618</v>
+        <v>0.91</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8963926020875297</v>
+        <v>0.9</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9040798773419094</v>
+        <v>0.9</v>
       </c>
       <c r="E5" t="n">
         <v>342</v>
@@ -538,13 +534,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9127807067947592</v>
+        <v>0.91</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9122807017543859</v>
+        <v>0.91</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9112966028248888</v>
+        <v>0.91</v>
       </c>
       <c r="E6" t="n">
         <v>342</v>
